--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB093.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB093.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD1B91-E265-4724-B0B3-7882320A8B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3EA957-1420-44B8-8F55-B0E77525141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="SP" sheetId="9" r:id="rId3"/>
     <sheet name="條件" sheetId="10" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$33</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -380,10 +377,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Y=是，N=否</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>YYYYMM(民國年)，如無到期年月，請填99999</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -684,6 +677,11 @@
   WHEN InsuRenew."ClNo"   IS NOT NULL THEN 'Y'
   ELSE 'N'
 END</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1017,6 +1015,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1028,27 +1047,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1069,29 +1067,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="暫存檔Work_B092"/>
-      <sheetName val="條件"/>
-      <sheetName val="更新欄位"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1429,17 +1404,17 @@
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="56.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="56.21875" style="31" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="22" t="s">
         <v>59</v>
       </c>
@@ -1449,13 +1424,13 @@
       <c r="E1" s="23"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1465,78 +1440,78 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="38"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="38"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="38"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1566,8 +1541,8 @@
       <c r="I8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>113</v>
+      <c r="J8" s="29" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1587,10 +1562,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34" t="s">
-        <v>145</v>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1611,16 +1586,16 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="30">
         <v>1</v>
       </c>
-      <c r="J10" s="34" t="s">
-        <v>146</v>
+      <c r="J10" s="30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1643,14 +1618,14 @@
       <c r="G11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="30">
         <v>2</v>
       </c>
-      <c r="J11" s="34" t="s">
-        <v>147</v>
+      <c r="J11" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1673,14 +1648,14 @@
       <c r="G12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="34">
+      <c r="H12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="30">
         <v>3</v>
       </c>
-      <c r="J12" s="34" t="s">
-        <v>148</v>
+      <c r="J12" s="30" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1703,14 +1678,14 @@
       <c r="G13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="30">
         <v>4</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>149</v>
+      <c r="J13" s="30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1733,14 +1708,14 @@
       <c r="G14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="30">
         <v>5</v>
       </c>
-      <c r="J14" s="34" t="s">
-        <v>150</v>
+      <c r="J14" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1763,14 +1738,14 @@
       <c r="G15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="30">
         <v>6</v>
       </c>
-      <c r="J15" s="34" t="s">
-        <v>151</v>
+      <c r="J15" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1778,7 +1753,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>64</v>
@@ -1793,14 +1768,14 @@
       <c r="G16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="30">
         <v>7</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>152</v>
+      <c r="J16" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1808,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>66</v>
@@ -1821,16 +1796,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="34">
+      <c r="I17" s="30">
         <v>8</v>
       </c>
-      <c r="J17" s="34" t="s">
-        <v>153</v>
+      <c r="J17" s="30" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -1838,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>67</v>
@@ -1851,16 +1826,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="34">
+        <v>85</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="30">
         <v>9</v>
       </c>
-      <c r="J18" s="34" t="s">
-        <v>154</v>
+      <c r="J18" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1868,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>68</v>
@@ -1881,16 +1856,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="34">
+        <v>84</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="30">
         <v>10</v>
       </c>
-      <c r="J19" s="34" t="s">
-        <v>155</v>
+      <c r="J19" s="30" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -1898,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>69</v>
@@ -1911,16 +1886,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="34">
+        <v>83</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="30">
         <v>11</v>
       </c>
-      <c r="J20" s="34" t="s">
-        <v>156</v>
+      <c r="J20" s="30" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -1928,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>70</v>
@@ -1941,16 +1916,16 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="35">
+        <v>86</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="31">
         <v>12</v>
       </c>
-      <c r="J21" s="35" t="s">
-        <v>157</v>
+      <c r="J21" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -1958,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>71</v>
@@ -1971,16 +1946,16 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="35">
+        <v>87</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="31">
         <v>13</v>
       </c>
-      <c r="J22" s="35" t="s">
-        <v>158</v>
+      <c r="J22" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1988,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>72</v>
@@ -2001,16 +1976,16 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="35">
+        <v>82</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="31">
         <v>14</v>
       </c>
-      <c r="J23" s="35" t="s">
-        <v>159</v>
+      <c r="J23" s="31" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2018,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>73</v>
@@ -2031,16 +2006,16 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="35">
+        <v>81</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="31">
         <v>15</v>
       </c>
-      <c r="J24" s="35" t="s">
-        <v>159</v>
+      <c r="J24" s="31" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -2048,7 +2023,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>74</v>
@@ -2061,16 +2036,16 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="34">
+        <v>80</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="30">
         <v>16</v>
       </c>
-      <c r="J25" s="34" t="s">
-        <v>160</v>
+      <c r="J25" s="30" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -2078,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>75</v>
@@ -2091,16 +2066,16 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="35">
+        <v>79</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="31">
         <v>17</v>
       </c>
-      <c r="J26" s="35" t="s">
-        <v>161</v>
+      <c r="J26" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -2108,7 +2083,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>76</v>
@@ -2121,16 +2096,16 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="35">
+        <v>162</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="31">
         <v>18</v>
       </c>
-      <c r="J27" s="35" t="s">
-        <v>162</v>
+      <c r="J27" s="31" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2138,7 +2113,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>77</v>
@@ -2153,14 +2128,14 @@
       <c r="G28" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="35">
+      <c r="H28" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="31">
         <v>19</v>
       </c>
-      <c r="J28" s="35" t="s">
-        <v>149</v>
+      <c r="J28" s="31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2183,13 +2158,13 @@
       <c r="G29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="31">
         <v>20</v>
       </c>
-      <c r="J29" s="35"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
@@ -2209,9 +2184,9 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
@@ -2231,9 +2206,9 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
@@ -2253,9 +2228,9 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
@@ -2275,9 +2250,9 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
@@ -2314,33 +2289,33 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
@@ -2446,13 +2421,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2471,183 +2446,183 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="38" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="136.109375" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>114</v>
+      <c r="A35" s="34" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
